--- a/biology/Botanique/Phacus/Phacus.xlsx
+++ b/biology/Botanique/Phacus/Phacus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phacus est un genre d'algues qui fait partie des Euglenophyta, et que l'on trouve principalement dans des eaux riches en nutriments. Son nom provient du grec phakos, qui signifie lentille, par analogie avec sa forme et sa couleur.
 L'espèce type est Phacus longicauda .
@@ -512,7 +524,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet organisme unicellulaire est de forme ovale, ou en cercle aplati, de 25 à 30 µm de long, et fait penser à une feuille en raison du flagelle qui la termine. Sa couleur est généralement verte, mais certaines espèces sont plutôt rouges (ce qui peut influer sur la couleur de l'eau dans laquelle ils se trouvent). Il comporte une zone photoréceptrice, de couleur rouge. Ce capteur et le flagelle lui permettent de se déplacer vers les zones dont la luminosité lui convient.
 </t>
@@ -543,7 +557,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet organisme se multiplie par division cellulaire, dans le sens de la longueur. Le processus commence par un doublement de la surface pelliculaire, suivi de la division proprement dite.
 Lorsque les conditions deviennent moins favorables, il est capable de modifier sa structure : il s'arrondit, perd son flagelle et renforce son enveloppe pour mieux protéger son contenu. En parallèle, son activité métabolique diminue.
@@ -575,9 +591,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon AlgaeBase                                           (14 juin 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon AlgaeBase                                           (14 juin 2012) :
 Phacus Drezepolskii Stawinski
 Phacus Schroeteri Huber-Pestalozzi
 Phacus abrupta Korshikov (Sans vérification)
@@ -818,7 +836,7 @@
 Phacus woltereckii Behre (Sans vérification)
 Phacus zmievicus Dedusenko-Stregoleva
 Phacus zmiewicus Dedusenko-Shchegoleva (Sans vérification)
-Selon Catalogue of Life                                   (14 juin 2012)[2] :
+Selon Catalogue of Life                                   (14 juin 2012) :
 Phacus abruptus
 Phacus acuminatus
 Phacus acutus
@@ -975,7 +993,7 @@
 Phacus viguerii
 Phacus wettsteinii
 Phacus zmievicus
-Selon NCBI  (14 juin 2012)[3] :
+Selon NCBI  (14 juin 2012) :
 Phacus acuminatus
 Phacus alatus
 Phacus applanatus
@@ -1009,7 +1027,7 @@
 Phacus trimarginatus
 Phacus triqueter
 Phacus warszewiczii
-Selon World Register of Marine Species                               (14 juin 2012)[4] :
+Selon World Register of Marine Species                               (14 juin 2012) :
 Phacus acuminatus Stokes, 1885
 Phacus acutus Pochmann, 1941
 Phacus aenigmaticus Drezepolski, 1922
